--- a/biology/Médecine/Articulation_intermétacarpienne/Articulation_intermétacarpienne.xlsx
+++ b/biology/Médecine/Articulation_intermétacarpienne/Articulation_intermétacarpienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Articulation_interm%C3%A9tacarpienne</t>
+          <t>Articulation_intermétacarpienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les articulations intermétacarpiennes sont les articulations planes qui unissent les bases des deuxième, troisième, quatrième et cinquième métacarpiens entre elles.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Articulation_interm%C3%A9tacarpienne</t>
+          <t>Articulation_intermétacarpienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Surfaces articulaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les surfaces articulaires sont deux facettes articulaires situées sur les faces latérale et médiale de la base des métacarpiens.
 Le deuxième métacarpien n'en possède qu'une sur sa face médiale et ne s’articule qu'avec le troisième métacarpien.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Articulation_interm%C3%A9tacarpienne</t>
+          <t>Articulation_intermétacarpienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Moyens d'unions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les os métacarpiens sont reliés entre eux par :
 les ligaments métacarpiens dorsaux entre les faces dorsales des bases de deux métacarpiens voisins,
